--- a/URS/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/URS/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DCCDD-7A78-486E-82D7-0D7F2E63A990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14328" yWindow="612" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="154">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,10 +154,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>提出日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>提回日期</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -181,10 +176,6 @@
   <si>
     <t>AuthApplCode</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DeleteDate</t>
@@ -411,10 +402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>媒體產出日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>處理日期</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -517,35 +504,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PostAuthLogHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郵局帳號授權記錄檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailSeq</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細序號</t>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,AuthCode,DetailSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND AuthCode = </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>facmNoCFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailSeq DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AuthCreateDate = ,AND AuthApplCode = ,AND CustNo = ,AND PostDepCode = ,AND RepayAcct = ,AND AuthCode = </t>
@@ -555,26 +519,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.該戶號、額度之授權帳號歷程序號
-2.刪除回復時，該筆刪除</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailSeq DESC,AuthCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode:AuthCode
 1期款2火險</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthApplCode
-1.申請(恢復授權)
-2.終止
-3.郵局終止
-4.誤終止
-9.暫停授權</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -640,12 +586,85 @@
 11姪子
 99其他</t>
   </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC,AuthCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC,AuthCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期(媒體產出日)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:AuthApplCode
+1.申請
+2.終止
+3.郵局終止
+4.誤終止
+9.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostAuthLogHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局授權記錄歷史檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,6 +751,26 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -816,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +952,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -925,16 +970,28 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,23 +1082,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1077,23 +1117,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1269,11 +1292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1288,25 +1311,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1315,13 +1338,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1331,10 +1354,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1342,12 +1365,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1355,12 +1378,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1368,12 +1391,12 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1381,12 +1404,12 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="32"/>
+      <c r="A8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="34"/>
       <c r="C8" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1416,80 +1439,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29">
+    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="28">
-        <v>7</v>
-      </c>
-      <c r="G10" s="30"/>
+      <c r="B10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="29">
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="29">
-        <v>3</v>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="28">
+        <v>7</v>
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:7" ht="32.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="29">
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>141</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="32.4">
       <c r="A13" s="29">
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1497,28 +1517,30 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="28">
         <v>8</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="97.2">
       <c r="A15" s="29">
         <v>6</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>19</v>
@@ -1526,8 +1548,8 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>142</v>
+      <c r="G15" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4">
@@ -1535,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>26</v>
@@ -1546,8 +1568,8 @@
       <c r="E16" s="28">
         <v>1</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>143</v>
+      <c r="G16" s="32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1555,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>19</v>
@@ -1576,7 +1598,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>19</v>
@@ -1591,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>27</v>
@@ -1612,28 +1634,30 @@
         <v>31</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="28">
         <v>8</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="29">
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="28">
         <v>8</v>
@@ -1651,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="28">
         <v>8</v>
@@ -1663,10 +1687,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>19</v>
@@ -1675,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -1683,10 +1707,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>19</v>
@@ -1695,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="307.8">
@@ -1703,10 +1727,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>19</v>
@@ -1715,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1723,19 +1747,19 @@
         <v>17</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="29">
         <v>6</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1743,19 +1767,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="28">
         <v>8</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1766,33 +1790,37 @@
         <v>34</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="28">
         <v>8</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="29">
         <v>20</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="28">
         <v>8</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="226.8">
       <c r="A30" s="29">
@@ -1802,7 +1830,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>19</v>
@@ -1811,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1822,7 +1850,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>20</v>
@@ -1837,10 +1865,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>19</v>
@@ -1858,10 +1886,10 @@
         <v>24</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" s="28">
         <v>8</v>
@@ -1876,7 +1904,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>19</v>
@@ -1884,8 +1912,8 @@
       <c r="E34" s="29">
         <v>1</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>147</v>
+      <c r="G34" s="33" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="64.8">
@@ -1893,19 +1921,19 @@
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1913,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>19</v>
@@ -1934,10 +1962,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="28"/>
       <c r="G37" s="20"/>
@@ -1968,10 +1996,10 @@
         <v>22</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39" s="28"/>
       <c r="G39" s="20"/>
@@ -1994,12 +2022,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2023,189 +2051,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/URS/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B04D78-CECF-4B09-9015-B2DD678462AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -639,31 +640,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostAuthLogHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局授權記錄歷史檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode:AuthApplCode
 1.申請
 2.終止
 3.郵局終止
 4.誤終止
-9.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期/暫停授權日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostAuthLogHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郵局授權記錄歷史檔</t>
+8.恢復授權
+9.暫停授權</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -958,6 +960,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,29 +989,11 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,6 +1084,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1117,6 +1136,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1292,11 +1328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1311,23 +1347,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
         <v>112</v>
       </c>
@@ -1339,10 +1375,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="12" t="s">
         <v>144</v>
       </c>
@@ -1354,10 +1390,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1365,10 +1401,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -1378,10 +1414,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
@@ -1391,10 +1427,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -1404,10 +1440,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -1440,21 +1476,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="38">
+      <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="29">
@@ -1532,7 +1568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="97.2">
+    <row r="15" spans="1:7" ht="113.4">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -1549,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4">
@@ -1810,7 +1846,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>55</v>
@@ -2022,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
